--- a/testData/pro/APIAutoTestDataModel.xlsx
+++ b/testData/pro/APIAutoTestDataModel.xlsx
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>

--- a/testData/pro/APIAutoTestDataModel.xlsx
+++ b/testData/pro/APIAutoTestDataModel.xlsx
@@ -25,7 +25,7 @@
     <t>method</t>
   </si>
   <si>
-    <t>content-type</t>
+    <t>headers</t>
   </si>
   <si>
     <t>url</t>
@@ -46,7 +46,7 @@
     <t>post</t>
   </si>
   <si>
-    <t>application/json</t>
+    <t>{"Content-Type": "application/json","timeout": 5}</t>
   </si>
   <si>
     <t>/ecr-admin/invoice_api/mage/riskManager/riskManageList</t>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="6"/>
